--- a/raw-data/JRL_block1_30_16_9.xlsx
+++ b/raw-data/JRL_block1_30_16_9.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">420485456</definedName>
-    <definedName name="MethodPointer2">566</definedName>
+    <definedName name="MethodPointer1">25941376</definedName>
+    <definedName name="MethodPointer2">390</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_16_8.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_16_9.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -535,12 +535,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBAD7EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFABCEEA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,13 +547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8E9F9"/>
+        <fgColor rgb="FF8DBCE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8DBCE0"/>
+        <fgColor rgb="FFBAD7EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,13 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF60A0D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF247CBD"/>
+        <fgColor rgb="FF5197CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF60A0D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3385C2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5197CC"/>
+        <fgColor rgb="FF247CBD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,31 +696,31 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,16 +729,16 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45768</v>
+        <v>45769</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.50728009259259255</v>
+        <v>0.60530092592592599</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>22.7</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>22.7</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1680,40 +1680,40 @@
         <v>38</v>
       </c>
       <c r="C49" s="9">
+        <v>8</v>
+      </c>
+      <c r="D49" s="9">
+        <v>11</v>
+      </c>
+      <c r="E49" s="9">
+        <v>12</v>
+      </c>
+      <c r="F49" s="9">
+        <v>10</v>
+      </c>
+      <c r="G49" s="9">
+        <v>10</v>
+      </c>
+      <c r="H49" s="9">
         <v>9</v>
       </c>
-      <c r="D49" s="9">
-        <v>9</v>
-      </c>
-      <c r="E49" s="9">
-        <v>9</v>
-      </c>
-      <c r="F49" s="9">
+      <c r="I49" s="9">
         <v>11</v>
       </c>
-      <c r="G49" s="9">
+      <c r="J49" s="9">
         <v>11</v>
       </c>
-      <c r="H49" s="9">
+      <c r="K49" s="9">
         <v>11</v>
       </c>
-      <c r="I49" s="9">
-        <v>9</v>
-      </c>
-      <c r="J49" s="9">
-        <v>13</v>
-      </c>
-      <c r="K49" s="9">
-        <v>13</v>
-      </c>
       <c r="L49" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M49" s="9">
         <v>12</v>
       </c>
       <c r="N49" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
@@ -1722,40 +1722,40 @@
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="30"/>
       <c r="C50" s="10">
-        <v>0.87</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="D50" s="11">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E50" s="12">
-        <v>1.018</v>
-      </c>
-      <c r="F50" s="13">
-        <v>1.07</v>
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="F50" s="12">
+        <v>1.05</v>
       </c>
       <c r="G50" s="13">
-        <v>1.113</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0.997</v>
-      </c>
-      <c r="I50" s="12">
-        <v>1.012</v>
-      </c>
-      <c r="J50" s="14">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="K50" s="12">
-        <v>1.016</v>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1.008</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0.998</v>
       </c>
       <c r="L50" s="10">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="M50" s="15">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="N50" s="16">
-        <v>1.141</v>
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="M50" s="14">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="N50" s="13">
+        <v>1.1439999999999999</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
@@ -1766,37 +1766,37 @@
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="9">
         <v>10</v>
       </c>
       <c r="E51" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" s="9">
-        <v>10</v>
-      </c>
-      <c r="G51" s="17">
-        <v>2300</v>
+        <v>9</v>
+      </c>
+      <c r="G51" s="15">
+        <v>1210</v>
       </c>
       <c r="H51" s="9">
         <v>11</v>
       </c>
-      <c r="I51" s="18">
-        <v>413</v>
+      <c r="I51" s="16">
+        <v>657</v>
       </c>
       <c r="J51" s="9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K51" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L51" s="9">
         <v>9</v>
       </c>
       <c r="M51" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N51" s="9">
         <v>12</v>
@@ -1807,41 +1807,41 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="30"/>
-      <c r="C52" s="19">
-        <v>1.3180000000000001</v>
-      </c>
-      <c r="D52" s="12">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="E52" s="11">
-        <v>0.94</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G52" s="19">
-        <v>1.3160000000000001</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="I52" s="12">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="J52" s="10">
-        <v>0.89100000000000001</v>
+      <c r="C52" s="17">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E52" s="18">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F52" s="18">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="G52" s="17">
+        <v>1.262</v>
+      </c>
+      <c r="H52" s="18">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1.028</v>
+      </c>
+      <c r="J52" s="18">
+        <v>0.89800000000000002</v>
       </c>
       <c r="K52" s="13">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="L52" s="13">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="M52" s="14">
-        <v>0.82299999999999995</v>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="L52" s="12">
+        <v>1.081</v>
+      </c>
+      <c r="M52" s="19">
+        <v>0.82599999999999996</v>
       </c>
       <c r="N52" s="20">
-        <v>1.399</v>
+        <v>1.389</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
@@ -1852,37 +1852,37 @@
         <v>65</v>
       </c>
       <c r="C53" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D53" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E53" s="9">
-        <v>16</v>
-      </c>
-      <c r="F53" s="21">
-        <v>925</v>
+        <v>13</v>
+      </c>
+      <c r="F53" s="16">
+        <v>609</v>
       </c>
       <c r="G53" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H53" s="9">
         <v>9</v>
       </c>
       <c r="I53" s="9">
-        <v>26</v>
-      </c>
-      <c r="J53" s="22">
-        <v>3547</v>
+        <v>15</v>
+      </c>
+      <c r="J53" s="21">
+        <v>2751</v>
       </c>
       <c r="K53" s="9">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L53" s="9">
+        <v>13</v>
+      </c>
+      <c r="M53" s="9">
         <v>12</v>
-      </c>
-      <c r="M53" s="9">
-        <v>11</v>
       </c>
       <c r="N53" s="9">
         <v>11</v>
@@ -1893,41 +1893,41 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="30"/>
-      <c r="C54" s="23">
-        <v>1.4750000000000001</v>
+      <c r="C54" s="22">
+        <v>1.4650000000000001</v>
       </c>
       <c r="D54" s="10">
-        <v>0.92</v>
-      </c>
-      <c r="E54" s="16">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="F54" s="24">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="G54" s="12">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="H54" s="15">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="I54" s="24">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="J54" s="19">
-        <v>1.302</v>
-      </c>
-      <c r="K54" s="11">
-        <v>0.98099999999999998</v>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F54" s="23">
+        <v>1.236</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H54" s="19">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="I54" s="23">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="J54" s="24">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="K54" s="18">
+        <v>0.95899999999999996</v>
       </c>
       <c r="L54" s="12">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="M54" s="12">
-        <v>1.028</v>
-      </c>
-      <c r="N54" s="16">
-        <v>1.198</v>
+        <v>1.042</v>
+      </c>
+      <c r="M54" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="N54" s="13">
+        <v>1.1559999999999999</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
@@ -1938,40 +1938,40 @@
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D55" s="9">
+        <v>8</v>
+      </c>
+      <c r="E55" s="9">
+        <v>13</v>
+      </c>
+      <c r="F55" s="9">
+        <v>13</v>
+      </c>
+      <c r="G55" s="9">
+        <v>11</v>
+      </c>
+      <c r="H55" s="16">
+        <v>458</v>
+      </c>
+      <c r="I55" s="9">
+        <v>13</v>
+      </c>
+      <c r="J55" s="9">
+        <v>82</v>
+      </c>
+      <c r="K55" s="9">
+        <v>100</v>
+      </c>
+      <c r="L55" s="9">
+        <v>98</v>
+      </c>
+      <c r="M55" s="25">
+        <v>2691</v>
+      </c>
+      <c r="N55" s="9">
         <v>12</v>
-      </c>
-      <c r="E55" s="9">
-        <v>16</v>
-      </c>
-      <c r="F55" s="9">
-        <v>11</v>
-      </c>
-      <c r="G55" s="9">
-        <v>14</v>
-      </c>
-      <c r="H55" s="21">
-        <v>874</v>
-      </c>
-      <c r="I55" s="9">
-        <v>8</v>
-      </c>
-      <c r="J55" s="9">
-        <v>75</v>
-      </c>
-      <c r="K55" s="9">
-        <v>98</v>
-      </c>
-      <c r="L55" s="9">
-        <v>114</v>
-      </c>
-      <c r="M55" s="25">
-        <v>3381</v>
-      </c>
-      <c r="N55" s="9">
-        <v>14</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
@@ -1979,41 +1979,41 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
-      <c r="C56" s="26">
-        <v>1.423</v>
-      </c>
-      <c r="D56" s="12">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="E56" s="24">
-        <v>1.2569999999999999</v>
-      </c>
-      <c r="F56" s="11">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="G56" s="13">
-        <v>1.131</v>
-      </c>
-      <c r="H56" s="12">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="I56" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="J56" s="12">
-        <v>1.0469999999999999</v>
+      <c r="C56" s="20">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0.995</v>
+      </c>
+      <c r="E56" s="23">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="F56" s="18">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G56" s="12">
+        <v>1.097</v>
+      </c>
+      <c r="H56" s="11">
+        <v>1</v>
+      </c>
+      <c r="I56" s="18">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0.999</v>
       </c>
       <c r="K56" s="10">
-        <v>0.90300000000000002</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="L56" s="11">
-        <v>0.99</v>
-      </c>
-      <c r="M56" s="26">
-        <v>1.4139999999999999</v>
-      </c>
-      <c r="N56" s="20">
-        <v>1.375</v>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="M56" s="20">
+        <v>1.409</v>
+      </c>
+      <c r="N56" s="24">
+        <v>1.371</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
@@ -2024,40 +2024,40 @@
         <v>91</v>
       </c>
       <c r="C57" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E57" s="9">
-        <v>24</v>
-      </c>
-      <c r="F57" s="22">
-        <v>3515</v>
+        <v>18</v>
+      </c>
+      <c r="F57" s="26">
+        <v>4287</v>
       </c>
       <c r="G57" s="9">
         <v>13</v>
       </c>
       <c r="H57" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J57" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K57" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L57" s="9">
-        <v>133</v>
-      </c>
-      <c r="M57" s="22">
-        <v>3703</v>
+        <v>146</v>
+      </c>
+      <c r="M57" s="27">
+        <v>4749</v>
       </c>
       <c r="N57" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
@@ -2065,41 +2065,41 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
-      <c r="C58" s="23">
-        <v>1.4810000000000001</v>
+      <c r="C58" s="22">
+        <v>1.4750000000000001</v>
       </c>
       <c r="D58" s="13">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="E58" s="16">
-        <v>1.171</v>
-      </c>
-      <c r="F58" s="26">
-        <v>1.44</v>
-      </c>
-      <c r="G58" s="24">
-        <v>1.2050000000000001</v>
+        <v>1.107</v>
+      </c>
+      <c r="E58" s="23">
+        <v>1.173</v>
+      </c>
+      <c r="F58" s="22">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="G58" s="13">
+        <v>1.153</v>
       </c>
       <c r="H58" s="20">
-        <v>1.367</v>
-      </c>
-      <c r="I58" s="16">
-        <v>1.198</v>
-      </c>
-      <c r="J58" s="24">
-        <v>1.266</v>
-      </c>
-      <c r="K58" s="24">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="L58" s="16">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="M58" s="24">
-        <v>1.232</v>
-      </c>
-      <c r="N58" s="20">
-        <v>1.3740000000000001</v>
+        <v>1.383</v>
+      </c>
+      <c r="I58" s="23">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="J58" s="23">
+        <v>1.23</v>
+      </c>
+      <c r="K58" s="17">
+        <v>1.256</v>
+      </c>
+      <c r="L58" s="13">
+        <v>1.165</v>
+      </c>
+      <c r="M58" s="17">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="N58" s="24">
+        <v>1.3520000000000001</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
@@ -2113,34 +2113,34 @@
         <v>11</v>
       </c>
       <c r="D59" s="9">
+        <v>9</v>
+      </c>
+      <c r="E59" s="9">
+        <v>21</v>
+      </c>
+      <c r="F59" s="9">
         <v>10</v>
       </c>
-      <c r="E59" s="9">
-        <v>19</v>
-      </c>
-      <c r="F59" s="9">
-        <v>12</v>
-      </c>
       <c r="G59" s="9">
+        <v>23</v>
+      </c>
+      <c r="H59" s="9">
         <v>17</v>
       </c>
-      <c r="H59" s="9">
-        <v>20</v>
-      </c>
       <c r="I59" s="9">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="J59" s="9">
         <v>12</v>
       </c>
-      <c r="K59" s="17">
-        <v>2238</v>
+      <c r="K59" s="15">
+        <v>1202</v>
       </c>
       <c r="L59" s="9">
-        <v>12</v>
-      </c>
-      <c r="M59" s="22">
-        <v>3693</v>
+        <v>14</v>
+      </c>
+      <c r="M59" s="27">
+        <v>4776</v>
       </c>
       <c r="N59" s="9">
         <v>11</v>
@@ -2151,41 +2151,41 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="30"/>
-      <c r="C60" s="20">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="D60" s="13">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="E60" s="16">
-        <v>1.143</v>
-      </c>
-      <c r="F60" s="16">
-        <v>1.1659999999999999</v>
-      </c>
-      <c r="G60" s="16">
-        <v>1.167</v>
-      </c>
-      <c r="H60" s="16">
-        <v>1.181</v>
-      </c>
-      <c r="I60" s="13">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J60" s="24">
-        <v>1.2509999999999999</v>
-      </c>
-      <c r="K60" s="19">
-        <v>1.2789999999999999</v>
+      <c r="C60" s="24">
+        <v>1.357</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="E60" s="13">
+        <v>1.119</v>
+      </c>
+      <c r="F60" s="23">
+        <v>1.179</v>
+      </c>
+      <c r="G60" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H60" s="23">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="I60" s="12">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="J60" s="17">
+        <v>1.252</v>
+      </c>
+      <c r="K60" s="17">
+        <v>1.288</v>
       </c>
       <c r="L60" s="13">
-        <v>1.125</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="M60" s="13">
-        <v>1.069</v>
-      </c>
-      <c r="N60" s="16">
-        <v>1.196</v>
+        <v>1.121</v>
+      </c>
+      <c r="N60" s="23">
+        <v>1.1970000000000001</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
@@ -2196,37 +2196,37 @@
         <v>117</v>
       </c>
       <c r="C61" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D61" s="9">
         <v>9</v>
       </c>
       <c r="E61" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" s="9">
         <v>8</v>
       </c>
       <c r="G61" s="9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H61" s="9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I61" s="9">
         <v>10</v>
       </c>
-      <c r="J61" s="22">
-        <v>3739</v>
+      <c r="J61" s="25">
+        <v>2652</v>
       </c>
       <c r="K61" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L61" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M61" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N61" s="9">
         <v>10</v>
@@ -2237,41 +2237,41 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="30"/>
-      <c r="C62" s="27">
-        <v>1.6779999999999999</v>
-      </c>
-      <c r="D62" s="13">
-        <v>1.0740000000000001</v>
+      <c r="C62" s="28">
+        <v>1.653</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1.0569999999999999</v>
       </c>
       <c r="E62" s="24">
-        <v>1.218</v>
-      </c>
-      <c r="F62" s="11">
-        <v>0.96399999999999997</v>
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="F62" s="18">
+        <v>0.93300000000000005</v>
       </c>
       <c r="G62" s="13">
-        <v>1.1180000000000001</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="H62" s="11">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="I62" s="16">
-        <v>1.171</v>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I62" s="13">
+        <v>1.1259999999999999</v>
       </c>
       <c r="J62" s="20">
-        <v>1.403</v>
-      </c>
-      <c r="K62" s="12">
-        <v>1.04</v>
-      </c>
-      <c r="L62" s="13">
-        <v>1.075</v>
+        <v>1.41</v>
+      </c>
+      <c r="K62" s="11">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="L62" s="12">
+        <v>1.0669999999999999</v>
       </c>
       <c r="M62" s="11">
-        <v>0.96599999999999997</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="N62" s="28">
-        <v>1.571</v>
+        <v>1.601</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
@@ -2282,40 +2282,40 @@
         <v>130</v>
       </c>
       <c r="C63" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E63" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G63" s="9">
+        <v>8</v>
+      </c>
+      <c r="H63" s="9">
+        <v>13</v>
+      </c>
+      <c r="I63" s="9">
         <v>11</v>
-      </c>
-      <c r="H63" s="9">
-        <v>9</v>
-      </c>
-      <c r="I63" s="9">
-        <v>8</v>
       </c>
       <c r="J63" s="9">
         <v>10</v>
       </c>
       <c r="K63" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L63" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M63" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N63" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
@@ -2323,41 +2323,41 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="30"/>
-      <c r="C64" s="11">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="D64" s="13">
-        <v>1.08</v>
-      </c>
-      <c r="E64" s="12">
-        <v>1.014</v>
+      <c r="C64" s="18">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D64" s="12">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0.99299999999999999</v>
       </c>
       <c r="F64" s="11">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="G64" s="13">
-        <v>1.103</v>
-      </c>
-      <c r="H64" s="16">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I64" s="12">
-        <v>1.0269999999999999</v>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G64" s="12">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="H64" s="13">
+        <v>1.109</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1.004</v>
       </c>
       <c r="J64" s="10">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="K64" s="10">
-        <v>0.92300000000000004</v>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K64" s="18">
+        <v>0.90900000000000003</v>
       </c>
       <c r="L64" s="12">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="M64" s="12">
         <v>1.0509999999999999</v>
       </c>
-      <c r="M64" s="12">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="N64" s="13">
-        <v>1.073</v>
+      <c r="N64" s="12">
+        <v>1.075</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
